--- a/level1/data.xlsx
+++ b/level1/data.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\tester\level1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\SourcefromMe\tester\level1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25452A85-21F8-4915-9443-981D93075F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C03F7A-EDE4-4130-A784-353815EE749E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="addUser" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="textSubmission" sheetId="3" r:id="rId3"/>
+    <sheet name="fileSubmission" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>username</t>
   </si>
@@ -64,6 +67,111 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>moodle</t>
+  </si>
+  <si>
+    <t>display_homepage</t>
+  </si>
+  <si>
+    <t>wrongpassword</t>
+  </si>
+  <si>
+    <t>display_login_form</t>
+  </si>
+  <si>
+    <t>wrongusername</t>
+  </si>
+  <si>
+    <t>correct login</t>
+  </si>
+  <si>
+    <t>wrong password</t>
+  </si>
+  <si>
+    <t>wrong username</t>
+  </si>
+  <si>
+    <t>wrong username and password</t>
+  </si>
+  <si>
+    <t>test-case name</t>
+  </si>
+  <si>
+    <t>num_of_word</t>
+  </si>
+  <si>
+    <t>//td[contains(.,'Submitted for grading')]</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>display_result</t>
+  </si>
+  <si>
+    <t>display_error</t>
+  </si>
+  <si>
+    <t>Nothing was submitted</t>
+  </si>
+  <si>
+    <t>The word limit for this assignment is 550 words and you are attempting to submit 551 words. Please review your submission and try again.</t>
+  </si>
+  <si>
+    <t>//div[3]/div[4]/div/div[2]/div/section/div[2]/div[1]/span</t>
+  </si>
+  <si>
+    <t>error_msg</t>
+  </si>
+  <si>
+    <t>//div[3]/div[4]/div/div[2]/div/section/div[2]/div[1]</t>
+  </si>
+  <si>
+    <t>display_empty_error</t>
+  </si>
+  <si>
+    <t>display_limit_error</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>350KB.pdf</t>
+  </si>
+  <si>
+    <t>1MB.pdf</t>
+  </si>
+  <si>
+    <t>1.5MB.pdf</t>
+  </si>
+  <si>
+    <t>display_success</t>
+  </si>
+  <si>
+    <t>//div[9]/div[3]/div/div[2]/div/div[1]</t>
+  </si>
+  <si>
+    <t>The file 1MB.pdf is too large. The maximum size you can upload is 1 MB.</t>
+  </si>
+  <si>
+    <t>The file 1.5MB.pdf is too large. The maximum size you can upload is 1 MB.</t>
+  </si>
+  <si>
+    <t>0.5MB.xlsx</t>
+  </si>
+  <si>
+    <t>1MB.xlxs</t>
+  </si>
+  <si>
+    <t>1.5MB.xlxs</t>
+  </si>
+  <si>
+    <t>Excel 2007 spreadsheet filetype cannot be accepted.</t>
   </si>
 </sst>
 </file>
@@ -383,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -444,4 +552,322 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F4068-4FA7-4EC5-961D-EF78C48E9E6C}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDA3FA8-C2C2-4A33-86D1-709352AB3392}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>550</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>551</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>549</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2C757-9BBC-4AA7-A129-EAE279A2AFC9}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>